--- a/data/lsd/extractions/250806 Fiche d'extraction d'échantillons.xlsx
+++ b/data/lsd/extractions/250806 Fiche d'extraction d'échantillons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/extractions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/lsd/extractions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{93468A25-0F3E-4D2C-B561-EDBFC89FB8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E4ADEA-25D2-4A2F-A934-AB2808299B3C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{93468A25-0F3E-4D2C-B561-EDBFC89FB8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE534386-17D3-45CD-BC9A-CB67DAE8449D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Extractions" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,7 +976,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="6">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="E9" s="1">
         <v>12</v>
@@ -1087,11 +1087,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-08-08T10:23:59+00:00</Uploaded>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1239,20 +1240,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-08-08T10:23:59+00:00</Uploaded>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8721CB2-CD50-42E3-BD8E-907EEB5D2FCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64EF464-96FB-47A5-B88C-65EE599D32FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1276,9 +1274,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D64EF464-96FB-47A5-B88C-65EE599D32FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8721CB2-CD50-42E3-BD8E-907EEB5D2FCF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>